--- a/data/SiteGroupSeasonFactors.xlsx
+++ b/data/SiteGroupSeasonFactors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\V-over-C-Calculations\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404BE4A8-6AC7-439F-8F4F-B0300B042A73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF929D9A-6130-4347-A02B-BB0E54C42FC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{BD5C1005-66D7-47C1-ACEC-6E42BBE6EDA9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
   <si>
     <t>Suburban</t>
   </si>
@@ -257,18 +257,6 @@
   </si>
   <si>
     <t>numCCSs</t>
-  </si>
-  <si>
-    <t>I‐16</t>
-  </si>
-  <si>
-    <t>I‐81</t>
-  </si>
-  <si>
-    <t>I‐82</t>
-  </si>
-  <si>
-    <t>I‐83</t>
   </si>
   <si>
     <t>Geography/Group Name</t>
@@ -1900,7 +1888,7 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1933,10 +1921,10 @@
   <sheetData>
     <row r="1" spans="1:23" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>26</v>
@@ -1948,58 +1936,58 @@
         <v>74</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
@@ -2453,7 +2441,7 @@
       <c r="D8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>0</v>
       </c>
       <c r="F8" s="8">
@@ -3191,7 +3179,7 @@
         <v>67</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>68</v>
@@ -3199,78 +3187,78 @@
       <c r="D18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="6">
         <v>0</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <f>F17</f>
         <v>0.99</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="8">
         <f t="shared" ref="G18:U18" si="3">G17</f>
         <v>0.879</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="8">
         <f t="shared" si="3"/>
         <v>0.93600000000000005</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="8">
         <f t="shared" si="3"/>
         <v>0.98399999999999999</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="8">
         <f t="shared" si="3"/>
         <v>1.028</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="8">
         <f t="shared" si="3"/>
         <v>1.03</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="8">
         <f t="shared" si="3"/>
         <v>1.038</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="8">
         <f t="shared" si="3"/>
         <v>1.02</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="8">
         <f t="shared" si="3"/>
         <v>1.0389999999999999</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="8">
         <f t="shared" si="3"/>
         <v>1.0209999999999999</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="8">
         <f t="shared" si="3"/>
         <v>1.0249999999999999</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="8">
         <f t="shared" si="3"/>
         <v>0.98899999999999999</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="8">
         <f t="shared" si="3"/>
         <v>0.93799999999999994</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="8">
         <f t="shared" si="3"/>
         <v>1.014</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="8">
         <f t="shared" si="3"/>
         <v>1.0329999999999999</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="8">
         <f t="shared" si="3"/>
         <v>1.012</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="8">
         <f t="shared" si="0"/>
         <v>1.0389999999999999</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="8">
         <f t="shared" si="1"/>
         <v>1.0329999999999999</v>
       </c>
@@ -3353,7 +3341,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>23</v>
@@ -3361,7 +3349,7 @@
       <c r="D20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="6">
         <v>0</v>
       </c>
       <c r="F20" s="8">
@@ -3442,7 +3430,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>0</v>
@@ -3450,7 +3438,7 @@
       <c r="D21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="8">
@@ -3531,7 +3519,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>5</v>
@@ -3604,7 +3592,7 @@
         <v>69</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>68</v>
@@ -3612,78 +3600,78 @@
       <c r="D23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="6">
         <v>0</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="8">
         <f>F22</f>
         <v>0.97399999999999998</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="8">
         <f t="shared" ref="G23" si="6">G22</f>
         <v>0.92100000000000004</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="8">
         <f t="shared" ref="H23" si="7">H22</f>
         <v>0.96099999999999997</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="8">
         <f t="shared" ref="I23" si="8">I22</f>
         <v>0.998</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="8">
         <f t="shared" ref="J23" si="9">J22</f>
         <v>0.97899999999999998</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="8">
         <f t="shared" ref="K23" si="10">K22</f>
         <v>1.0089999999999999</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="8">
         <f t="shared" ref="L23" si="11">L22</f>
         <v>1.0409999999999999</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="8">
         <f t="shared" ref="M23" si="12">M22</f>
         <v>1.0249999999999999</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="8">
         <f t="shared" ref="N23" si="13">N22</f>
         <v>1.0489999999999999</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="8">
         <f t="shared" ref="O23" si="14">O22</f>
         <v>1.0329999999999999</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="8">
         <f t="shared" ref="P23" si="15">P22</f>
         <v>1.024</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="8">
         <f t="shared" ref="Q23" si="16">Q22</f>
         <v>0.97899999999999998</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="8">
         <f t="shared" ref="R23" si="17">R22</f>
         <v>0.95199999999999996</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="8">
         <f t="shared" ref="S23" si="18">S22</f>
         <v>0.995</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T23" s="8">
         <f t="shared" ref="T23" si="19">T22</f>
         <v>1.038</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U23" s="8">
         <f t="shared" ref="U23" si="20">U22</f>
         <v>1.012</v>
       </c>
-      <c r="V23" s="7">
+      <c r="V23" s="8">
         <f t="shared" si="0"/>
         <v>1.0489999999999999</v>
       </c>
-      <c r="W23" s="7">
+      <c r="W23" s="8">
         <f t="shared" si="1"/>
         <v>1.038</v>
       </c>
@@ -4796,7 +4784,7 @@
       <c r="D39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="8">

--- a/data/SiteGroupSeasonFactors.xlsx
+++ b/data/SiteGroupSeasonFactors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\V-over-C-Calculations\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF929D9A-6130-4347-A02B-BB0E54C42FC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4603FE02-1345-4FAA-9D8C-34BCEC86AA7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{BD5C1005-66D7-47C1-ACEC-6E42BBE6EDA9}"/>
+    <workbookView xWindow="15630" yWindow="8880" windowWidth="29040" windowHeight="16440" xr2:uid="{BD5C1005-66D7-47C1-ACEC-6E42BBE6EDA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="96">
   <si>
     <t>Suburban</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>SiteGroupSeason</t>
+  </si>
+  <si>
+    <t>S00-Ann</t>
   </si>
 </sst>
 </file>
@@ -1885,10 +1888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4258028E-F3DA-45DD-A104-FE65FAE0F88C}">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1915,11 +1918,11 @@
     <col min="20" max="20" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="3"/>
+    <col min="23" max="24" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>94</v>
       </c>
@@ -1989,8 +1992,11 @@
       <c r="W1" s="9" t="s">
         <v>93</v>
       </c>
+      <c r="X1" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
@@ -2062,8 +2068,11 @@
         <f>MAX(R2:U2)</f>
         <v>1.0880000000000001</v>
       </c>
+      <c r="X2" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>52</v>
       </c>
@@ -2135,8 +2144,11 @@
         <f t="shared" ref="W3:W39" si="1">MAX(R3:U3)</f>
         <v>1.1739999999999999</v>
       </c>
+      <c r="X3" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -2208,8 +2220,11 @@
         <f t="shared" si="1"/>
         <v>1.1180000000000001</v>
       </c>
+      <c r="X4" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
@@ -2281,8 +2296,11 @@
         <f t="shared" si="1"/>
         <v>1.0569999999999999</v>
       </c>
+      <c r="X5" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
@@ -2354,8 +2372,11 @@
         <f t="shared" si="1"/>
         <v>1.026</v>
       </c>
+      <c r="X6" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>56</v>
       </c>
@@ -2427,8 +2448,11 @@
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
+      <c r="X7" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>70</v>
       </c>
@@ -2516,8 +2540,11 @@
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
+      <c r="X8" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>49</v>
       </c>
@@ -2589,8 +2616,11 @@
         <f t="shared" si="1"/>
         <v>1.1180000000000001</v>
       </c>
+      <c r="X9" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
@@ -2662,8 +2692,11 @@
         <f t="shared" si="1"/>
         <v>1.226</v>
       </c>
+      <c r="X10" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
@@ -2735,8 +2768,11 @@
         <f t="shared" si="1"/>
         <v>1.0329999999999999</v>
       </c>
+      <c r="X11" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>58</v>
       </c>
@@ -2808,8 +2844,11 @@
         <f t="shared" si="1"/>
         <v>1.036</v>
       </c>
+      <c r="X12" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>59</v>
       </c>
@@ -2881,8 +2920,11 @@
         <f t="shared" si="1"/>
         <v>1.0660000000000001</v>
       </c>
+      <c r="X13" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -2954,8 +2996,11 @@
         <f t="shared" si="1"/>
         <v>1.119</v>
       </c>
+      <c r="X14" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -3027,8 +3072,11 @@
         <f t="shared" si="1"/>
         <v>1.0860000000000001</v>
       </c>
+      <c r="X15" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
@@ -3100,8 +3148,11 @@
         <f t="shared" si="1"/>
         <v>1.0489999999999999</v>
       </c>
+      <c r="X16" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
@@ -3173,8 +3224,11 @@
         <f t="shared" si="1"/>
         <v>1.0329999999999999</v>
       </c>
+      <c r="X17" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>67</v>
       </c>
@@ -3262,8 +3316,11 @@
         <f t="shared" si="1"/>
         <v>1.0329999999999999</v>
       </c>
+      <c r="X18" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -3335,8 +3392,11 @@
         <f t="shared" si="1"/>
         <v>1.1559999999999999</v>
       </c>
+      <c r="X19" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>36</v>
       </c>
@@ -3424,8 +3484,11 @@
         <f t="shared" si="1"/>
         <v>1.117</v>
       </c>
+      <c r="X20" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
@@ -3513,8 +3576,11 @@
         <f t="shared" si="1"/>
         <v>1.077</v>
       </c>
+      <c r="X21" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>38</v>
       </c>
@@ -3586,8 +3652,11 @@
         <f t="shared" si="1"/>
         <v>1.038</v>
       </c>
+      <c r="X22" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>69</v>
       </c>
@@ -3675,8 +3744,11 @@
         <f t="shared" si="1"/>
         <v>1.038</v>
       </c>
+      <c r="X23" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>60</v>
       </c>
@@ -3748,8 +3820,11 @@
         <f t="shared" si="1"/>
         <v>1.0149999999999999</v>
       </c>
+      <c r="X24" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -3821,8 +3896,11 @@
         <f t="shared" si="1"/>
         <v>1.0349999999999999</v>
       </c>
+      <c r="X25" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3894,8 +3972,11 @@
         <f t="shared" si="1"/>
         <v>1.0349999999999999</v>
       </c>
+      <c r="X26" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>41</v>
       </c>
@@ -3967,8 +4048,11 @@
         <f t="shared" si="1"/>
         <v>1.2989999999999999</v>
       </c>
+      <c r="X27" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>39</v>
       </c>
@@ -4040,8 +4124,11 @@
         <f t="shared" si="1"/>
         <v>1.206</v>
       </c>
+      <c r="X28" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>40</v>
       </c>
@@ -4113,8 +4200,11 @@
         <f t="shared" si="1"/>
         <v>1.153</v>
       </c>
+      <c r="X29" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
@@ -4186,8 +4276,11 @@
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
+      <c r="X30" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
@@ -4259,8 +4352,11 @@
         <f t="shared" si="1"/>
         <v>2.0779999999999998</v>
       </c>
+      <c r="X31" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
@@ -4332,8 +4428,11 @@
         <f t="shared" si="1"/>
         <v>1.238</v>
       </c>
+      <c r="X32" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
@@ -4405,8 +4504,11 @@
         <f t="shared" si="1"/>
         <v>1.746</v>
       </c>
+      <c r="X33" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>44</v>
       </c>
@@ -4478,8 +4580,11 @@
         <f t="shared" si="1"/>
         <v>1.31</v>
       </c>
+      <c r="X34" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>45</v>
       </c>
@@ -4551,8 +4656,11 @@
         <f t="shared" si="1"/>
         <v>1.2070000000000001</v>
       </c>
+      <c r="X35" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -4624,8 +4732,11 @@
         <f t="shared" si="1"/>
         <v>1.097</v>
       </c>
+      <c r="X36" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>47</v>
       </c>
@@ -4697,8 +4808,11 @@
         <f t="shared" si="1"/>
         <v>1.5720000000000001</v>
       </c>
+      <c r="X37" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>48</v>
       </c>
@@ -4770,8 +4884,11 @@
         <f t="shared" si="1"/>
         <v>1.994</v>
       </c>
+      <c r="X38" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>71</v>
       </c>
@@ -4858,6 +4975,9 @@
       <c r="W39" s="7">
         <f t="shared" si="1"/>
         <v>1.018</v>
+      </c>
+      <c r="X39" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
